--- a/vaccination_county_urls.xlsx
+++ b/vaccination_county_urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhirup158798\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B354B23A-A3D2-4502-8F79-9A4C35FBA283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A3BE3-97CD-43D9-8938-A0492AF18386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{124D7AD0-6E80-4981-AD55-FA1E59FBD261}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -64,6 +64,60 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/0fc524b44b024cefc5d3ce9407cbe2027ae93e79/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/1ab5a678c34cce2fa4e095f158cc1b152bac64d0/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/7daa747efd2b02f3e1bd61c2d9844fe7761bb88d/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/59dc3c257afd9d129702f0fa3cac73945923eb75/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8f182bd89dfc7efac6033cdff502dead207a5c9a/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/2b88b4a7afeb95cc81c4e4bf834a3a8981c94285/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/b46a9e4137a23a86b08770d3c737ee9ae84a051a/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/4d055f8550e1c5635d7425632b7be582edee6377/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/06ed24aa6756de13a6d1d0c283469c9d5c0d25d1/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8482fd1f83a924b4da62b43afd96f1c7d3828ffe/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/ed6993ff4256dbe6b347dcd69c9151e2b60185fb/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/272fb781e1fcb50d0b7e32a22d39a6a0e84d8756/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/05a863ecc79a7568e2cae96170ba08ad957ba885/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/8b5ae6c27bf498701eb3b33b217714f9f2f9d8c0/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/93a4e1f47993b9b81c1a5851dbc6839e3f4707f8/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c73948dd87ed84471e50eeb13e92efe255b943cf/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/f194e99b69bbc39ae8387b236c9041aa442f6bb1/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/0ba1dd7c6c6eadf91f897c48286751b7b5f2b297/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/1d1e010216c917e56d8fb9f072fb10e3a129f2f7/counties.json</t>
   </si>
 </sst>
 </file>
@@ -416,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D76D1-7D4B-49E7-A113-F8B79E4A03FD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +508,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <f t="shared" ref="A4:A28" si="0">A3+1</f>
         <v>44284</v>
       </c>
       <c r="B4" t="s">
@@ -515,6 +569,168 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>44291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>44292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>44293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>44294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>44295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>44296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>44297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>44298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>44299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>44300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>44301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>44302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>44303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>44304</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>44305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>44306</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>44307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>44308</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vaccination_county_urls.xlsx
+++ b/vaccination_county_urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhirup158798\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A3BE3-97CD-43D9-8938-A0492AF18386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09504505-2D6B-4119-BE95-C3953FF27733}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{124D7AD0-6E80-4981-AD55-FA1E59FBD261}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{124D7AD0-6E80-4981-AD55-FA1E59FBD261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -118,6 +112,15 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/1d1e010216c917e56d8fb9f072fb10e3a129f2f7/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/6be51bd4348df57c1533fd1a13d3e0fcdd0107c7/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/c9a530dc6d085617a9ea6d6669b4f9ef8ba3fd50/counties.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/simonw/cdc-vaccination-history/518c8623cf6c257adbc938fe3ebcce965d2df854/counties.json</t>
   </si>
 </sst>
 </file>
@@ -470,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D76D1-7D4B-49E7-A113-F8B79E4A03FD}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44282</v>
       </c>
@@ -497,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>44283</v>
@@ -506,16 +509,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A28" si="0">A3+1</f>
+        <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>44284</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>44285</v>
@@ -524,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>44286</v>
@@ -533,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -542,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>A7+1</f>
         <v>44288</v>
@@ -551,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>44289</v>
@@ -560,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>44290</v>
@@ -569,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>44291</v>
@@ -578,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>44292</v>
@@ -587,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -596,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -605,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -614,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>44296</v>
@@ -623,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -632,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>44298</v>
@@ -641,7 +644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>44299</v>
@@ -650,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>44300</v>
@@ -659,7 +662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>44301</v>
@@ -668,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>44302</v>
@@ -677,7 +680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>44303</v>
@@ -686,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>44304</v>
@@ -695,7 +698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>44305</v>
@@ -704,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>44306</v>
@@ -713,7 +716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>44307</v>
@@ -722,13 +725,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>44308</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>44309</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>44310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>44311</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
